--- a/data/globalTables/binInventory.xlsx
+++ b/data/globalTables/binInventory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="12495"/>
+    <workbookView xWindow="480" yWindow="255" windowWidth="27795" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>工单状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>dispatchStatus</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -255,6 +251,10 @@
   </si>
   <si>
     <t>S17110906L504</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单状态(开工/报工)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -643,139 +643,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J6" sqref="A1:T12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="20" width="17" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
@@ -789,26 +789,26 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -829,37 +829,37 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -873,32 +873,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -913,43 +913,43 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -963,32 +963,32 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1003,43 +1003,43 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1053,32 +1053,32 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1093,43 +1093,43 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1143,32 +1143,32 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1183,43 +1183,43 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
